--- a/FP_ALLDATA.xlsx
+++ b/FP_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdine\Documents\UVA_Fall2019\Machine_Learning\Final Project\super-resolution-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3AB08-2984-49C3-AA39-FA3923472663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17717E08-2C84-410A-88E6-D14AA4EB5374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C17F8CC-BBB2-45A5-A98C-F466104FB71B}"/>
   </bookViews>
@@ -5719,7 +5719,7 @@
   <dataFields count="1">
     <dataField name="Sum of *PSNR" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="6">
     <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5739,42 +5739,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="90" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="91" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="92" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="93" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6135,7 +6099,7 @@
   <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
